--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -270,17 +270,17 @@
       </c>
       <c t="inlineStr" r="C2">
         <is>
-          <t>768-1007-1-ND</t>
+          <t>ATMEGA328P-AURCT-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D2">
         <is>
-          <t>FT232RL-REEL</t>
+          <t>ATMEGA328P-AUR</t>
         </is>
       </c>
       <c t="inlineStr" r="E2">
         <is>
-          <t>IC USB FS SERIAL UART 28-SSOP</t>
+          <t>IC MCU 8BIT 32KB FLASH 32TQFP</t>
         </is>
       </c>
       <c r="G2" s="65">
@@ -290,10 +290,10 @@
         <v>0</v>
       </c>
       <c t="n" r="I2">
-        <v>4.50000</v>
+        <v>2.14000</v>
       </c>
       <c r="J2" s="66">
-        <v>4.50</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="3">
@@ -305,17 +305,17 @@
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t>ATMEGA328P-AURCT-ND</t>
+          <t>768-1007-1-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D3">
         <is>
-          <t>ATMEGA328P-AUR</t>
+          <t>FT232RL-REEL</t>
         </is>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t>IC MCU 8BIT 32KB FLASH 32TQFP</t>
+          <t>IC USB FS SERIAL UART 28-SSOP</t>
         </is>
       </c>
       <c r="G3" s="65">
@@ -325,10 +325,10 @@
         <v>0</v>
       </c>
       <c t="n" r="I3">
-        <v>2.14000</v>
+        <v>4.50000</v>
       </c>
       <c r="J3" s="66">
-        <v>2.14</v>
+        <v>4.50</v>
       </c>
     </row>
     <row r="4">
@@ -375,17 +375,17 @@
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t>S1012EC-40-ND</t>
+          <t>MIC37100-3.3WS-CT-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D5">
         <is>
-          <t>PREC040SAAN-RC</t>
+          <t>MIC37100-3.3WS-TR</t>
         </is>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t>CONN HEADER VERT 40POS 2.54MM</t>
+          <t>IC REG LINEAR 3.3V 1A SOT223</t>
         </is>
       </c>
       <c r="G5" s="65">
@@ -395,10 +395,10 @@
         <v>0</v>
       </c>
       <c t="n" r="I5">
-        <v>0.51000</v>
+        <v>1.44000</v>
       </c>
       <c r="J5" s="66">
-        <v>0.51</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="6">
@@ -410,17 +410,17 @@
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t>151-1206-1-ND</t>
+          <t>S1012EC-40-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D6">
         <is>
-          <t>690-005-299-043</t>
+          <t>PREC040SAAN-RC</t>
         </is>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t>CONN RCPT USB2.0 MINI B SMD R/A</t>
+          <t>CONN HEADER VERT 40POS 2.54MM</t>
         </is>
       </c>
       <c r="G6" s="65">
@@ -430,10 +430,10 @@
         <v>0</v>
       </c>
       <c t="n" r="I6">
-        <v>0.65000</v>
+        <v>0.51000</v>
       </c>
       <c r="J6" s="66">
-        <v>0.65</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="7">
@@ -445,17 +445,17 @@
       </c>
       <c t="inlineStr" r="C7">
         <is>
-          <t>SW415-ND</t>
+          <t>151-1206-1-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D7">
         <is>
-          <t>B3S-1000</t>
+          <t>690-005-299-043</t>
         </is>
       </c>
       <c t="inlineStr" r="E7">
         <is>
-          <t>SWITCH TACTILE SPST-NO 0.05A 24V</t>
+          <t>CONN RCPT USB2.0 MINI B SMD R/A</t>
         </is>
       </c>
       <c r="G7" s="65">
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c t="n" r="I7">
-        <v>0.70000</v>
+        <v>0.65000</v>
       </c>
       <c r="J7" s="66">
-        <v>0.70</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="8">
@@ -480,17 +480,17 @@
       </c>
       <c t="inlineStr" r="C8">
         <is>
-          <t>MIC37100-3.3WS-CT-ND</t>
+          <t>SW415-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D8">
         <is>
-          <t>MIC37100-3.3WS-TR</t>
+          <t>B3S-1000</t>
         </is>
       </c>
       <c t="inlineStr" r="E8">
         <is>
-          <t>IC REG LINEAR 3.3V 1A SOT223</t>
+          <t>SWITCH TACTILE SPST-NO 0.05A 24V</t>
         </is>
       </c>
       <c r="G8" s="65">
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c t="n" r="I8">
-        <v>1.44000</v>
+        <v>0.70000</v>
       </c>
       <c r="J8" s="66">
-        <v>1.44</v>
+        <v>0.70</v>
       </c>
     </row>
     <row r="9">
@@ -546,34 +546,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c t="inlineStr" r="C10">
         <is>
-          <t>MF-MSMF050-2CT-ND</t>
+          <t>160-1169-1-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D10">
         <is>
-          <t>MF-MSMF050-2</t>
+          <t>LTST-C150GKT</t>
         </is>
       </c>
       <c t="inlineStr" r="E10">
         <is>
-          <t>PTC RESET FUSE 15V 500MA 1812</t>
+          <t>LED GREEN CLEAR 1206 SMD</t>
         </is>
       </c>
       <c r="G10" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H10" s="65">
         <v>0</v>
       </c>
       <c t="n" r="I10">
-        <v>0.49000</v>
+        <v>0.25700</v>
       </c>
       <c r="J10" s="66">
-        <v>0.49</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="11">
@@ -581,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="65">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c t="inlineStr" r="C11">
         <is>
@@ -599,16 +599,16 @@
         </is>
       </c>
       <c r="G11" s="65">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H11" s="65">
         <v>0</v>
       </c>
       <c t="n" r="I11">
-        <v>0.02400</v>
+        <v>0.01010</v>
       </c>
       <c r="J11" s="66">
-        <v>0.24</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="12">
@@ -655,17 +655,17 @@
       </c>
       <c t="inlineStr" r="C13">
         <is>
-          <t>1276-1102-1-ND</t>
+          <t>311-0.0GRCT-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D13">
         <is>
-          <t>CL10A105KA8NNNC</t>
+          <t>RC0603JR-070RL</t>
         </is>
       </c>
       <c t="inlineStr" r="E13">
         <is>
-          <t>CAP CER 1UF 25V X5R 0603</t>
+          <t>RES SMD 0 OHM JUMPER 1/10W 0603</t>
         </is>
       </c>
       <c r="G13" s="65">
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c t="n" r="I13">
-        <v>0.04300</v>
+        <v>0.02100</v>
       </c>
       <c r="J13" s="66">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="14">
@@ -756,69 +756,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c t="inlineStr" r="C16">
         <is>
-          <t>SS1P3L-M3/84AGICT-ND</t>
+          <t>1276-1102-1-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D16">
         <is>
-          <t>SS1P3L-M3/84A</t>
+          <t>CL10A105KA8NNNC</t>
         </is>
       </c>
       <c t="inlineStr" r="E16">
         <is>
-          <t>DIODE SCHOTTKY 30V 1.5A DO220AA</t>
+          <t>CAP CER 1UF 25V X5R 0603</t>
         </is>
       </c>
       <c r="G16" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H16" s="65">
         <v>0</v>
       </c>
       <c t="n" r="I16">
-        <v>0.48000</v>
+        <v>0.04300</v>
       </c>
       <c r="J16" s="66">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="65">
-        <v>16</v>
-      </c>
-      <c r="B17" s="65">
-        <v>10</v>
-      </c>
-      <c t="inlineStr" r="C17">
-        <is>
-          <t>160-1169-1-ND</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="D17">
-        <is>
-          <t>LTST-C150GKT</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="E17">
-        <is>
-          <t>LED GREEN CLEAR 1206 SMD</t>
-        </is>
-      </c>
-      <c r="G17" s="65">
-        <v>10</v>
-      </c>
-      <c r="H17" s="65">
-        <v>0</v>
-      </c>
-      <c t="n" r="I17">
-        <v>0.25700</v>
-      </c>
-      <c r="J17" s="66">
-        <v>2.57</v>
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
